--- a/data/Аутэкология (биотехнологи). (Общая экология для Биотехнологов)(1-26).xlsx
+++ b/data/Аутэкология (биотехнологи). (Общая экология для Биотехнологов)(1-26).xlsx
@@ -252,10 +252,10 @@
   <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="1" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
@@ -856,7 +856,8 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
+        <f aca="false">3+1</f>
+        <v>4</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
